--- a/5. Defect and Bug List/System Test Defect Log.xlsx
+++ b/5. Defect and Bug List/System Test Defect Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uithcm-my.sharepoint.com/personal/22520778_ms_uit_edu_vn/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E14997C3-FC07-4EC5-AF37-FD537840C93B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2A97229-AB2B-462B-B9CA-6B9CCA0D64DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BBB75B4A-E6EC-4AFF-A0D4-4B5111E16E2A}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="32">
   <si>
     <t>Bug list</t>
   </si>
@@ -68,89 +68,98 @@
     <t>Created Date</t>
   </si>
   <si>
-    <t>User interface</t>
-  </si>
-  <si>
-    <t>The "Date Time Checker" text is not in blue or Arial font as specified in the requirements document.</t>
-  </si>
-  <si>
-    <t>User Interface</t>
+    <t>Product Type Management</t>
+  </si>
+  <si>
+    <t>Cannot delete product type
+Expected result: when a user clicks on the trash icon of a product type, that product type must be deleted</t>
+  </si>
+  <si>
+    <t>Feature missing</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Product Management</t>
+  </si>
+  <si>
+    <t>Error in order of appearance
+Expected result: When the user clicks on the add new product button, it must display the product adding interface first. If the product information is incorrect or missing, a message will be displayed. Please enter correct and complete information instead of displaying Display this message before displaying the interface for adding new products</t>
+  </si>
+  <si>
+    <t>Coding Logic</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Provider Management</t>
+  </si>
+  <si>
+    <t>Error adding provider
+Expected result: When a user adds a provider, even though the provider code is missing, the system still allows a new provider to be created</t>
+  </si>
+  <si>
+    <t>Serious</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Error deleting provider
+When the user selects the suppliers and clicks on the trash icon at the top, a message appears: Do you want to delete the selected suppliers? If you choose yes, you will get an error. Not only will the system not delete the suppliers, but also displays the message that 0 product types have been deleted</t>
+  </si>
+  <si>
+    <t>Sell Order Management</t>
+  </si>
+  <si>
+    <t>Sell order detail error
+Expected result: when the user clicks on the sell order details, the total amount does not match the total amount of the products in the order</t>
+  </si>
+  <si>
+    <t>Purchase Order Management</t>
+  </si>
+  <si>
+    <t>Purchase order detail error
+Expected result: when the user clicks on the purchase order details, the total amount does not match the total amount of the products in the order</t>
+  </si>
+  <si>
+    <t>Cannot use search function
+Expected result: when the user enters the purchase order code, the desired order will be displayed, but here nothing is displayed.</t>
   </si>
   <si>
     <t>Cosmetic</t>
   </si>
   <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>Open</t>
-  </si>
-  <si>
-    <t>Close Function</t>
-  </si>
-  <si>
-    <t>Message box confirmation is missing when clicking the "X" button to close the application.</t>
-  </si>
-  <si>
-    <t>Feature missing</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>Clear Function</t>
-  </si>
-  <si>
-    <t>The "Clear" button does not clear all three textboxes.</t>
-  </si>
-  <si>
-    <t>Coding Logic</t>
-  </si>
-  <si>
-    <t>Serious</t>
-  </si>
-  <si>
-    <t>Check Date Time</t>
-  </si>
-  <si>
-    <t>The application allows non-integer input in the "Day" field without showing the error message.</t>
-  </si>
-  <si>
-    <t>Business Logic</t>
-  </si>
-  <si>
-    <t>The application incorrectly flags 29/02/2000 (a valid leap year date) as invalid.</t>
-  </si>
-  <si>
-    <t>Fatal</t>
-  </si>
-  <si>
-    <t>Immediately</t>
-  </si>
-  <si>
-    <t>Error message for invalid "Month" input is not displayed as described in the requirements.</t>
-  </si>
-  <si>
-    <t>Performance</t>
-  </si>
-  <si>
-    <t>Date validation takes more than 1 second to respond.</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>"Close" button at the top-right corner lacks a tooltip for user clarity.</t>
+    <t>Cannot use search function
+Expected result: when the user enters the sell order code, the desired order will be displayed, but here nothing is displayed.</t>
+  </si>
+  <si>
+    <t>Cannot use search function
+Expected result: when the user enters the provider code, the desired provider will be displayed, but here nothing is displayed.</t>
+  </si>
+  <si>
+    <t>Error when exiting product type search
+Expected result: when the user has looked up the product code, when user presses the exit button, user cannot exit the product search page</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -292,62 +301,71 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -658,11 +676,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.15"/>
@@ -677,18 +695,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:8" ht="18" customHeight="1">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
     </row>
@@ -718,7 +736,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="39.6">
+    <row r="4" spans="1:8" ht="52.9">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -735,213 +753,263 @@
         <v>12</v>
       </c>
       <c r="F4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>13</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>14</v>
       </c>
       <c r="H4" s="9">
         <v>45614</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="26.45">
+    <row r="5" spans="1:8" ht="118.9">
       <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="E5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="G5" s="8" t="s">
         <v>13</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>14</v>
       </c>
       <c r="H5" s="9">
         <v>45614</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="26.45">
+    <row r="6" spans="1:8" ht="52.9">
       <c r="A6" s="3">
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="F6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>18</v>
-      </c>
       <c r="G6" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H6" s="9">
         <v>45614</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="26.45">
-      <c r="A7" s="10">
+    <row r="7" spans="1:8" ht="105.6">
+      <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="9">
+        <v>45614</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="66">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D8" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="13">
+        <v>45614</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="66">
+      <c r="A9" s="10">
+        <v>6</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="16">
+      <c r="C9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="15">
         <v>45614</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="26.45">
-      <c r="A8" s="4">
-        <v>5</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="12">
-        <v>45614</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="26.45">
-      <c r="A9" s="4">
-        <v>6</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="12">
-        <v>45614</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="26.45">
+    <row r="10" spans="1:8" ht="52.9">
       <c r="A10" s="4">
         <v>7</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="13" t="s">
+      <c r="B10" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="16">
-        <v>45614</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="26.45">
+      <c r="G10" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" ht="52.9">
       <c r="A11" s="4">
         <v>8</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="13" t="s">
+      <c r="E11" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="13">
+        <v>45614</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="50.25">
+      <c r="A12" s="11">
+        <v>9</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="12">
-        <v>45614</v>
+      <c r="E12" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="13">
+        <v>45615</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="46.5">
+      <c r="A13" s="11">
+        <v>10</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="13">
+        <v>45615</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C2"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D11" xr:uid="{7533D1AB-E0F4-4C34-B3A0-39C99FD0D683}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D13" xr:uid="{7533D1AB-E0F4-4C34-B3A0-39C99FD0D683}">
       <formula1>"User Interface, Business Logic, Feature missing, Coding Logic"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E11" xr:uid="{042CBBD9-54BA-4FE4-9B01-50AE4F092213}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E13" xr:uid="{042CBBD9-54BA-4FE4-9B01-50AE4F092213}">
       <formula1>"Fatal,Serious,Medium,Cosmetic"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F11" xr:uid="{6DD61A95-FD67-4303-814D-5737383CD49A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F13" xr:uid="{6DD61A95-FD67-4303-814D-5737383CD49A}">
       <formula1>"Immediately,High,Medium,Low"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G11" xr:uid="{D8CD76DB-89AE-49A5-B188-D1ACFD97EA68}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G13" xr:uid="{D8CD76DB-89AE-49A5-B188-D1ACFD97EA68}">
       <formula1>"Open,Pending,Closed"</formula1>
     </dataValidation>
   </dataValidations>
@@ -961,6 +1029,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="95e165bd-d1bc-4fe9-8f4e-343137b3c93d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Tài liệu" ma:contentTypeID="0x010100564E5089AB94B44E8326C48C342689F8" ma:contentTypeVersion="5" ma:contentTypeDescription="Tạo tài liệu mới." ma:contentTypeScope="" ma:versionID="774fae680c3fbc4fa987789d6a44912f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="95e165bd-d1bc-4fe9-8f4e-343137b3c93d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="63d75278314102c3243f7370d4f7e09d" ns3:_="">
     <xsd:import namespace="95e165bd-d1bc-4fe9-8f4e-343137b3c93d"/>
@@ -1110,22 +1186,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="95e165bd-d1bc-4fe9-8f4e-343137b3c93d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{990D6372-F41A-4583-9830-2472DB2176FE}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0232CD5E-5097-4E2A-9B42-208A7D5ABD6D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBAE1BD4-0D98-48AF-8311-BD97E4364684}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBAE1BD4-0D98-48AF-8311-BD97E4364684}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0232CD5E-5097-4E2A-9B42-208A7D5ABD6D}"/>
 </file>